--- a/Code/Results/Cases/Case_1_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_183/res_line/pl_mw.xlsx
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.1766640848809971</v>
+        <v>0.04416460176223325</v>
       </c>
       <c r="E2">
-        <v>1.765433349908136</v>
+        <v>0.4396191691991618</v>
       </c>
       <c r="F2">
-        <v>5.08508805273766</v>
+        <v>1.528290297222981</v>
       </c>
       <c r="G2">
-        <v>6.047613846318768</v>
+        <v>1.673767081463325</v>
       </c>
       <c r="H2">
-        <v>2.855195282128761</v>
+        <v>1.010542361786406</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -474,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.1481600608386344</v>
+        <v>0.03830832642181292</v>
       </c>
       <c r="E3">
-        <v>1.477819511624588</v>
+        <v>0.382347927903524</v>
       </c>
       <c r="F3">
-        <v>4.299387531526605</v>
+        <v>1.363286054659937</v>
       </c>
       <c r="G3">
-        <v>5.107744382705278</v>
+        <v>1.472460773835564</v>
       </c>
       <c r="H3">
-        <v>2.417775887462483</v>
+        <v>0.9231199012414208</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.1316666761484129</v>
+        <v>0.0347263708503931</v>
       </c>
       <c r="E4">
-        <v>1.311801910483382</v>
+        <v>0.3474053453013681</v>
       </c>
       <c r="F4">
-        <v>3.839723242349976</v>
+        <v>1.262945067803372</v>
       </c>
       <c r="G4">
-        <v>4.557876019152076</v>
+        <v>1.349747030403478</v>
       </c>
       <c r="H4">
-        <v>2.162425671209149</v>
+        <v>0.8702008080870769</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.1251451355865072</v>
+        <v>0.03326964694163337</v>
       </c>
       <c r="E5">
-        <v>1.246240096146479</v>
+        <v>0.3332162809223007</v>
       </c>
       <c r="F5">
-        <v>3.656993775845166</v>
+        <v>1.222288067622259</v>
       </c>
       <c r="G5">
-        <v>4.33926767082616</v>
+        <v>1.299949458491483</v>
       </c>
       <c r="H5">
-        <v>2.061043229932096</v>
+        <v>0.8488200623750686</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -615,19 +615,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.1240729425006037</v>
+        <v>0.03302792226328677</v>
       </c>
       <c r="E6">
-        <v>1.235465716026766</v>
+        <v>0.3308630769826237</v>
       </c>
       <c r="F6">
-        <v>3.626899869878883</v>
+        <v>1.215550724464322</v>
       </c>
       <c r="G6">
-        <v>4.303263164096279</v>
+        <v>1.291692836908965</v>
       </c>
       <c r="H6">
-        <v>2.044353751884984</v>
+        <v>0.8452807431613678</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.1315779786121283</v>
+        <v>0.03470671369254319</v>
       </c>
       <c r="E7">
-        <v>1.310909909582662</v>
+        <v>0.34721379011431</v>
       </c>
       <c r="F7">
-        <v>3.837241647402038</v>
+        <v>1.262395826126095</v>
       </c>
       <c r="G7">
-        <v>4.554907267146717</v>
+        <v>1.349074614279175</v>
       </c>
       <c r="H7">
-        <v>2.161048325781422</v>
+        <v>0.8699117225502562</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.1665900476820923</v>
+        <v>0.04214216942422411</v>
       </c>
       <c r="E8">
-        <v>1.663681052406275</v>
+        <v>0.4198225367166231</v>
       </c>
       <c r="F8">
-        <v>4.808690486004878</v>
+        <v>1.471187856943203</v>
       </c>
       <c r="G8">
-        <v>5.716971371056843</v>
+        <v>1.604163365212287</v>
       </c>
       <c r="H8">
-        <v>2.701189145393244</v>
+        <v>0.9802376235733732</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -756,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.2466043174925687</v>
+        <v>0.05685744970708129</v>
       </c>
       <c r="E9">
-        <v>2.475205393489532</v>
+        <v>0.5642327170640442</v>
       </c>
       <c r="F9">
-        <v>6.963220771646007</v>
+        <v>1.888902018709416</v>
       </c>
       <c r="G9">
-        <v>8.295420152117742</v>
+        <v>2.112127782647519</v>
       </c>
       <c r="H9">
-        <v>3.904959172676627</v>
+        <v>1.202918706961327</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.3195780394049592</v>
+        <v>0.06778656051734799</v>
       </c>
       <c r="E10">
-        <v>3.223342820008256</v>
+        <v>0.671944623436147</v>
       </c>
       <c r="F10">
-        <v>8.842406559566115</v>
+        <v>2.201659492699918</v>
       </c>
       <c r="G10">
-        <v>10.54794552903923</v>
+        <v>2.491042104895712</v>
       </c>
       <c r="H10">
-        <v>4.960488211714505</v>
+        <v>1.370841485233484</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -850,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.358959321058208</v>
+        <v>0.07279217338034982</v>
       </c>
       <c r="E11">
-        <v>3.63128859148739</v>
+        <v>0.7213816670721229</v>
       </c>
       <c r="F11">
-        <v>9.820535537072118</v>
+        <v>2.345399064368479</v>
       </c>
       <c r="G11">
-        <v>11.72240991433841</v>
+        <v>2.664885521213535</v>
       </c>
       <c r="H11">
-        <v>5.511853027748941</v>
+        <v>1.44827547428082</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3752633481810648</v>
+        <v>0.07469321267008411</v>
       </c>
       <c r="E12">
-        <v>3.801232012380851</v>
+        <v>0.7401723167000966</v>
       </c>
       <c r="F12">
-        <v>10.2178483775096</v>
+        <v>2.400055170825851</v>
       </c>
       <c r="G12">
-        <v>12.1999511953934</v>
+        <v>2.730945692542946</v>
       </c>
       <c r="H12">
-        <v>5.736200930869416</v>
+        <v>1.477756451588164</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3716779563501973</v>
+        <v>0.07428353371486196</v>
       </c>
       <c r="E13">
-        <v>3.763802681089217</v>
+        <v>0.7361221926845047</v>
       </c>
       <c r="F13">
-        <v>10.13086452675714</v>
+        <v>2.388273756458318</v>
       </c>
       <c r="G13">
-        <v>12.09537757619194</v>
+        <v>2.716707962544604</v>
       </c>
       <c r="H13">
-        <v>5.687065115623739</v>
+        <v>1.471400018306952</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3602685749414007</v>
+        <v>0.07294845857009591</v>
       </c>
       <c r="E14">
-        <v>3.644911226198772</v>
+        <v>0.7229261437162222</v>
       </c>
       <c r="F14">
-        <v>9.852607558786389</v>
+        <v>2.349891060477688</v>
       </c>
       <c r="G14">
-        <v>11.76094733936571</v>
+        <v>2.670315630292464</v>
       </c>
       <c r="H14">
-        <v>5.529954588443445</v>
+        <v>1.450697669861938</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3534821868335882</v>
+        <v>0.07213142521979421</v>
       </c>
       <c r="E15">
-        <v>3.574343968424884</v>
+        <v>0.7148524956227789</v>
       </c>
       <c r="F15">
-        <v>9.686051262822389</v>
+        <v>2.326410295331868</v>
       </c>
       <c r="G15">
-        <v>11.56083503363413</v>
+        <v>2.641929398215893</v>
       </c>
       <c r="H15">
-        <v>5.435965475903402</v>
+        <v>1.438037758433495</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.3171644564789204</v>
+        <v>0.06746016902407348</v>
       </c>
       <c r="E16">
-        <v>3.198447313802205</v>
+        <v>0.6687232001522858</v>
       </c>
       <c r="F16">
-        <v>8.781623231144124</v>
+        <v>2.19229646974</v>
       </c>
       <c r="G16">
-        <v>10.47501223004025</v>
+        <v>2.479712166869149</v>
       </c>
       <c r="H16">
-        <v>4.926269183172508</v>
+        <v>1.365802710240814</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.296733819070198</v>
+        <v>0.06460364233217319</v>
       </c>
       <c r="E17">
-        <v>2.988156594715903</v>
+        <v>0.6405414693057452</v>
       </c>
       <c r="F17">
-        <v>8.263294218223677</v>
+        <v>2.110407240501445</v>
       </c>
       <c r="G17">
-        <v>9.85329389847783</v>
+        <v>2.38058685249996</v>
       </c>
       <c r="H17">
-        <v>4.634675878376925</v>
+        <v>1.321762217021217</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.2855233700839506</v>
+        <v>0.06296379515427475</v>
       </c>
       <c r="E18">
-        <v>2.873090059639509</v>
+        <v>0.6243729184996312</v>
       </c>
       <c r="F18">
-        <v>7.976016237963137</v>
+        <v>2.063443689084238</v>
       </c>
       <c r="G18">
-        <v>9.508873390782696</v>
+        <v>2.323710192705562</v>
       </c>
       <c r="H18">
-        <v>4.473224940678904</v>
+        <v>1.2965291561203</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.2818100701235409</v>
+        <v>0.06240909297230246</v>
       </c>
       <c r="E19">
-        <v>2.83502347741215</v>
+        <v>0.6189053326470031</v>
       </c>
       <c r="F19">
-        <v>7.880415980618352</v>
+        <v>2.047565729167587</v>
       </c>
       <c r="G19">
-        <v>9.394281011980297</v>
+        <v>2.30447583926275</v>
       </c>
       <c r="H19">
-        <v>4.419522960819506</v>
+        <v>1.288002240429705</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.298850098808785</v>
+        <v>0.06490739369478149</v>
       </c>
       <c r="E20">
-        <v>3.009903403381927</v>
+        <v>0.6435371872360776</v>
       </c>
       <c r="F20">
-        <v>8.317299007354535</v>
+        <v>2.11911020998528</v>
       </c>
       <c r="G20">
-        <v>9.918053123684331</v>
+        <v>2.391124544869797</v>
       </c>
       <c r="H20">
-        <v>4.665039568894429</v>
+        <v>1.326440215915341</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3635761746698591</v>
+        <v>0.07334044737078216</v>
       </c>
       <c r="E21">
-        <v>3.679344923286465</v>
+        <v>0.7268001897907368</v>
       </c>
       <c r="F21">
-        <v>9.93350249980341</v>
+        <v>2.361158763589515</v>
       </c>
       <c r="G21">
-        <v>11.85815821520237</v>
+        <v>2.683935813114488</v>
       </c>
       <c r="H21">
-        <v>5.575618452073968</v>
+        <v>1.45677408627796</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.4145783786025561</v>
+        <v>0.07888443913446963</v>
       </c>
       <c r="E22">
-        <v>4.213978699760432</v>
+        <v>0.7816282444840681</v>
       </c>
       <c r="F22">
-        <v>11.15708772985096</v>
+        <v>2.520670277776929</v>
       </c>
       <c r="G22">
-        <v>13.33009481252662</v>
+        <v>2.876650817821201</v>
       </c>
       <c r="H22">
-        <v>6.2674614213729</v>
+        <v>1.542882076632281</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3862748291460321</v>
+        <v>0.07592231310700015</v>
       </c>
       <c r="E23">
-        <v>3.916396440104592</v>
+        <v>0.7523255529325468</v>
       </c>
       <c r="F23">
-        <v>10.48361503380985</v>
+        <v>2.435410421870188</v>
       </c>
       <c r="G23">
-        <v>12.51955203873985</v>
+        <v>2.773666093207794</v>
       </c>
       <c r="H23">
-        <v>5.886395699561035</v>
+        <v>1.496837023020134</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1461,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.2978916929195492</v>
+        <v>0.06477006025221499</v>
       </c>
       <c r="E24">
-        <v>3.00005386522615</v>
+        <v>0.6421827193270531</v>
       </c>
       <c r="F24">
-        <v>8.292850652779435</v>
+        <v>2.115175238321655</v>
       </c>
       <c r="G24">
-        <v>9.888735664836076</v>
+        <v>2.386360107227858</v>
       </c>
       <c r="H24">
-        <v>4.651293205077309</v>
+        <v>1.324325024093469</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1508,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2231678415244431</v>
+        <v>0.05285854641977039</v>
       </c>
       <c r="E25">
-        <v>2.236674442812173</v>
+        <v>0.5249106469200768</v>
       </c>
       <c r="F25">
-        <v>6.342005216931454</v>
+        <v>1.774930254878257</v>
       </c>
       <c r="G25">
-        <v>7.551648860852993</v>
+        <v>1.973780395381766</v>
       </c>
       <c r="H25">
-        <v>3.557135845856067</v>
+        <v>1.141953052602048</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_183/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_183/res_line/pl_mw.xlsx
@@ -427,19 +427,19 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.04416460176223325</v>
+        <v>0.1766640848811818</v>
       </c>
       <c r="E2">
-        <v>0.4396191691991618</v>
+        <v>1.765433349908164</v>
       </c>
       <c r="F2">
-        <v>1.528290297222981</v>
+        <v>5.085088052737632</v>
       </c>
       <c r="G2">
-        <v>1.673767081463325</v>
+        <v>6.047613846318825</v>
       </c>
       <c r="H2">
-        <v>1.010542361786406</v>
+        <v>2.855195282128761</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -474,19 +474,19 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.03830832642181292</v>
+        <v>0.1481600608389755</v>
       </c>
       <c r="E3">
-        <v>0.382347927903524</v>
+        <v>1.477819511624602</v>
       </c>
       <c r="F3">
-        <v>1.363286054659937</v>
+        <v>4.299387531526605</v>
       </c>
       <c r="G3">
-        <v>1.472460773835564</v>
+        <v>5.107744382705278</v>
       </c>
       <c r="H3">
-        <v>0.9231199012414208</v>
+        <v>2.417775887462369</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -521,19 +521,19 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0347263708503931</v>
+        <v>0.1316666761484129</v>
       </c>
       <c r="E4">
-        <v>0.3474053453013681</v>
+        <v>1.311801910483368</v>
       </c>
       <c r="F4">
-        <v>1.262945067803372</v>
+        <v>3.839723242350004</v>
       </c>
       <c r="G4">
-        <v>1.349747030403478</v>
+        <v>4.557876019152019</v>
       </c>
       <c r="H4">
-        <v>0.8702008080870769</v>
+        <v>2.162425671209206</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -568,19 +568,19 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.03326964694163337</v>
+        <v>0.1251451355863935</v>
       </c>
       <c r="E5">
-        <v>0.3332162809223007</v>
+        <v>1.246240096146479</v>
       </c>
       <c r="F5">
-        <v>1.222288067622259</v>
+        <v>3.656993775845194</v>
       </c>
       <c r="G5">
-        <v>1.299949458491483</v>
+        <v>4.339267670826189</v>
       </c>
       <c r="H5">
-        <v>0.8488200623750686</v>
+        <v>2.061043229932096</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -615,19 +615,19 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.03302792226328677</v>
+        <v>0.1240729425004901</v>
       </c>
       <c r="E6">
-        <v>0.3308630769826237</v>
+        <v>1.235465716026766</v>
       </c>
       <c r="F6">
-        <v>1.215550724464322</v>
+        <v>3.62689986987894</v>
       </c>
       <c r="G6">
-        <v>1.291692836908965</v>
+        <v>4.303263164096336</v>
       </c>
       <c r="H6">
-        <v>0.8452807431613678</v>
+        <v>2.044353751884984</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -662,19 +662,19 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.03470671369254319</v>
+        <v>0.1315779786120999</v>
       </c>
       <c r="E7">
-        <v>0.34721379011431</v>
+        <v>1.31090990958262</v>
       </c>
       <c r="F7">
-        <v>1.262395826126095</v>
+        <v>3.837241647402067</v>
       </c>
       <c r="G7">
-        <v>1.349074614279175</v>
+        <v>4.554907267146802</v>
       </c>
       <c r="H7">
-        <v>0.8699117225502562</v>
+        <v>2.161048325781536</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -709,19 +709,19 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.04214216942422411</v>
+        <v>0.1665900476821065</v>
       </c>
       <c r="E8">
-        <v>0.4198225367166231</v>
+        <v>1.663681052406304</v>
       </c>
       <c r="F8">
-        <v>1.471187856943203</v>
+        <v>4.808690486004878</v>
       </c>
       <c r="G8">
-        <v>1.604163365212287</v>
+        <v>5.716971371056786</v>
       </c>
       <c r="H8">
-        <v>0.9802376235733732</v>
+        <v>2.701189145393244</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -756,19 +756,19 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.05685744970708129</v>
+        <v>0.2466043174927108</v>
       </c>
       <c r="E9">
-        <v>0.5642327170640442</v>
+        <v>2.475205393489546</v>
       </c>
       <c r="F9">
-        <v>1.888902018709416</v>
+        <v>6.963220771646007</v>
       </c>
       <c r="G9">
-        <v>2.112127782647519</v>
+        <v>8.295420152117629</v>
       </c>
       <c r="H9">
-        <v>1.202918706961327</v>
+        <v>3.904959172676627</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -803,19 +803,19 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.06778656051734799</v>
+        <v>0.3195780394049876</v>
       </c>
       <c r="E10">
-        <v>0.671944623436147</v>
+        <v>3.223342820008213</v>
       </c>
       <c r="F10">
-        <v>2.201659492699918</v>
+        <v>8.84240655956603</v>
       </c>
       <c r="G10">
-        <v>2.491042104895712</v>
+        <v>10.54794552903911</v>
       </c>
       <c r="H10">
-        <v>1.370841485233484</v>
+        <v>4.960488211714505</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -850,19 +850,19 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.07279217338034982</v>
+        <v>0.3589593210581796</v>
       </c>
       <c r="E11">
-        <v>0.7213816670721229</v>
+        <v>3.63128859148739</v>
       </c>
       <c r="F11">
-        <v>2.345399064368479</v>
+        <v>9.820535537072175</v>
       </c>
       <c r="G11">
-        <v>2.664885521213535</v>
+        <v>11.72240991433847</v>
       </c>
       <c r="H11">
-        <v>1.44827547428082</v>
+        <v>5.511853027748941</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -897,19 +897,19 @@
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.07469321267008411</v>
+        <v>0.375263348181079</v>
       </c>
       <c r="E12">
-        <v>0.7401723167000966</v>
+        <v>3.801232012380837</v>
       </c>
       <c r="F12">
-        <v>2.400055170825851</v>
+        <v>10.21784837750957</v>
       </c>
       <c r="G12">
-        <v>2.730945692542946</v>
+        <v>12.1999511953934</v>
       </c>
       <c r="H12">
-        <v>1.477756451588164</v>
+        <v>5.736200930869416</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -944,19 +944,19 @@
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.07428353371486196</v>
+        <v>0.3716779563501689</v>
       </c>
       <c r="E13">
-        <v>0.7361221926845047</v>
+        <v>3.763802681089231</v>
       </c>
       <c r="F13">
-        <v>2.388273756458318</v>
+        <v>10.13086452675725</v>
       </c>
       <c r="G13">
-        <v>2.716707962544604</v>
+        <v>12.09537757619211</v>
       </c>
       <c r="H13">
-        <v>1.471400018306952</v>
+        <v>5.687065115623739</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -991,19 +991,19 @@
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.07294845857009591</v>
+        <v>0.3602685749414007</v>
       </c>
       <c r="E14">
-        <v>0.7229261437162222</v>
+        <v>3.644911226198829</v>
       </c>
       <c r="F14">
-        <v>2.349891060477688</v>
+        <v>9.852607558786417</v>
       </c>
       <c r="G14">
-        <v>2.670315630292464</v>
+        <v>11.76094733936566</v>
       </c>
       <c r="H14">
-        <v>1.450697669861938</v>
+        <v>5.529954588443445</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -1038,19 +1038,19 @@
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.07213142521979421</v>
+        <v>0.3534821868335882</v>
       </c>
       <c r="E15">
-        <v>0.7148524956227789</v>
+        <v>3.574343968424898</v>
       </c>
       <c r="F15">
-        <v>2.326410295331868</v>
+        <v>9.68605126282236</v>
       </c>
       <c r="G15">
-        <v>2.641929398215893</v>
+        <v>11.56083503363408</v>
       </c>
       <c r="H15">
-        <v>1.438037758433495</v>
+        <v>5.435965475903458</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -1085,19 +1085,19 @@
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.06746016902407348</v>
+        <v>0.3171644564789347</v>
       </c>
       <c r="E16">
-        <v>0.6687232001522858</v>
+        <v>3.198447313802262</v>
       </c>
       <c r="F16">
-        <v>2.19229646974</v>
+        <v>8.781623231144238</v>
       </c>
       <c r="G16">
-        <v>2.479712166869149</v>
+        <v>10.47501223004042</v>
       </c>
       <c r="H16">
-        <v>1.365802710240814</v>
+        <v>4.926269183172565</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -1132,19 +1132,19 @@
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.06460364233217319</v>
+        <v>0.2967338190699707</v>
       </c>
       <c r="E17">
-        <v>0.6405414693057452</v>
+        <v>2.988156594715875</v>
       </c>
       <c r="F17">
-        <v>2.110407240501445</v>
+        <v>8.263294218223649</v>
       </c>
       <c r="G17">
-        <v>2.38058685249996</v>
+        <v>9.853293898477773</v>
       </c>
       <c r="H17">
-        <v>1.321762217021217</v>
+        <v>4.634675878376981</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1179,19 +1179,19 @@
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.06296379515427475</v>
+        <v>0.2855233700841069</v>
       </c>
       <c r="E18">
-        <v>0.6243729184996312</v>
+        <v>2.873090059639509</v>
       </c>
       <c r="F18">
-        <v>2.063443689084238</v>
+        <v>7.976016237963194</v>
       </c>
       <c r="G18">
-        <v>2.323710192705562</v>
+        <v>9.50887339078281</v>
       </c>
       <c r="H18">
-        <v>1.2965291561203</v>
+        <v>4.473224940678904</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1226,19 +1226,19 @@
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.06240909297230246</v>
+        <v>0.2818100701239246</v>
       </c>
       <c r="E19">
-        <v>0.6189053326470031</v>
+        <v>2.835023477412165</v>
       </c>
       <c r="F19">
-        <v>2.047565729167587</v>
+        <v>7.880415980618409</v>
       </c>
       <c r="G19">
-        <v>2.30447583926275</v>
+        <v>9.394281011980468</v>
       </c>
       <c r="H19">
-        <v>1.288002240429705</v>
+        <v>4.419522960819506</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1273,19 +1273,19 @@
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.06490739369478149</v>
+        <v>0.2988500988087992</v>
       </c>
       <c r="E20">
-        <v>0.6435371872360776</v>
+        <v>3.00990340338187</v>
       </c>
       <c r="F20">
-        <v>2.11911020998528</v>
+        <v>8.31729900735445</v>
       </c>
       <c r="G20">
-        <v>2.391124544869797</v>
+        <v>9.918053123684331</v>
       </c>
       <c r="H20">
-        <v>1.326440215915341</v>
+        <v>4.665039568894372</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.07334044737078216</v>
+        <v>0.3635761746696602</v>
       </c>
       <c r="E21">
-        <v>0.7268001897907368</v>
+        <v>3.67934492328645</v>
       </c>
       <c r="F21">
-        <v>2.361158763589515</v>
+        <v>9.93350249980341</v>
       </c>
       <c r="G21">
-        <v>2.683935813114488</v>
+        <v>11.85815821520237</v>
       </c>
       <c r="H21">
-        <v>1.45677408627796</v>
+        <v>5.575618452074025</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1367,19 +1367,19 @@
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.07888443913446963</v>
+        <v>0.4145783786027266</v>
       </c>
       <c r="E22">
-        <v>0.7816282444840681</v>
+        <v>4.213978699760446</v>
       </c>
       <c r="F22">
-        <v>2.520670277776929</v>
+        <v>11.15708772985101</v>
       </c>
       <c r="G22">
-        <v>2.876650817821201</v>
+        <v>13.33009481252697</v>
       </c>
       <c r="H22">
-        <v>1.542882076632281</v>
+        <v>6.2674614213729</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1414,19 +1414,19 @@
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.07592231310700015</v>
+        <v>0.3862748291462452</v>
       </c>
       <c r="E23">
-        <v>0.7523255529325468</v>
+        <v>3.916396440104549</v>
       </c>
       <c r="F23">
-        <v>2.435410421870188</v>
+        <v>10.48361503380985</v>
       </c>
       <c r="G23">
-        <v>2.773666093207794</v>
+        <v>12.5195520387399</v>
       </c>
       <c r="H23">
-        <v>1.496837023020134</v>
+        <v>5.886395699561035</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1461,19 +1461,19 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.06477006025221499</v>
+        <v>0.2978916929197197</v>
       </c>
       <c r="E24">
-        <v>0.6421827193270531</v>
+        <v>3.000053865226164</v>
       </c>
       <c r="F24">
-        <v>2.115175238321655</v>
+        <v>8.292850652779435</v>
       </c>
       <c r="G24">
-        <v>2.386360107227858</v>
+        <v>9.888735664836133</v>
       </c>
       <c r="H24">
-        <v>1.324325024093469</v>
+        <v>4.651293205077309</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1508,19 +1508,19 @@
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.05285854641977039</v>
+        <v>0.223167841524301</v>
       </c>
       <c r="E25">
-        <v>0.5249106469200768</v>
+        <v>2.236674442812102</v>
       </c>
       <c r="F25">
-        <v>1.774930254878257</v>
+        <v>6.342005216931454</v>
       </c>
       <c r="G25">
-        <v>1.973780395381766</v>
+        <v>7.551648860852993</v>
       </c>
       <c r="H25">
-        <v>1.141953052602048</v>
+        <v>3.557135845856067</v>
       </c>
       <c r="I25">
         <v>0</v>
